--- a/3/4/Tasas de captación 2021 - Diaria.xlsx
+++ b/3/4/Tasas de captación 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="175">
   <si>
     <t>Serie</t>
   </si>
@@ -473,6 +473,72 @@
   </si>
   <si>
     <t>03-08-2021</t>
+  </si>
+  <si>
+    <t>04-08-2021</t>
+  </si>
+  <si>
+    <t>05-08-2021</t>
+  </si>
+  <si>
+    <t>06-08-2021</t>
+  </si>
+  <si>
+    <t>09-08-2021</t>
+  </si>
+  <si>
+    <t>10-08-2021</t>
+  </si>
+  <si>
+    <t>11-08-2021</t>
+  </si>
+  <si>
+    <t>12-08-2021</t>
+  </si>
+  <si>
+    <t>13-08-2021</t>
+  </si>
+  <si>
+    <t>16-08-2021</t>
+  </si>
+  <si>
+    <t>17-08-2021</t>
+  </si>
+  <si>
+    <t>18-08-2021</t>
+  </si>
+  <si>
+    <t>19-08-2021</t>
+  </si>
+  <si>
+    <t>20-08-2021</t>
+  </si>
+  <si>
+    <t>23-08-2021</t>
+  </si>
+  <si>
+    <t>24-08-2021</t>
+  </si>
+  <si>
+    <t>25-08-2021</t>
+  </si>
+  <si>
+    <t>26-08-2021</t>
+  </si>
+  <si>
+    <t>27-08-2021</t>
+  </si>
+  <si>
+    <t>30-08-2021</t>
+  </si>
+  <si>
+    <t>31-08-2021</t>
+  </si>
+  <si>
+    <t>01-09-2021</t>
+  </si>
+  <si>
+    <t>02-09-2021</t>
   </si>
 </sst>
 </file>
@@ -830,7 +896,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F148"/>
+  <dimension ref="A1:F170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3790,10 +3856,450 @@
         <v>0.01</v>
       </c>
       <c r="E148">
+        <v>0.28</v>
+      </c>
+      <c r="F148">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6">
+      <c r="A149" t="s">
+        <v>153</v>
+      </c>
+      <c r="B149">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="C149">
+        <v>0.13</v>
+      </c>
+      <c r="D149">
+        <v>0.02</v>
+      </c>
+      <c r="E149">
+        <v>0.13</v>
+      </c>
+      <c r="F149">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6">
+      <c r="A150" t="s">
+        <v>154</v>
+      </c>
+      <c r="B150">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="C150">
+        <v>0.1</v>
+      </c>
+      <c r="D150">
+        <v>0.01</v>
+      </c>
+      <c r="E150">
+        <v>0.19</v>
+      </c>
+      <c r="F150">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6">
+      <c r="A151" t="s">
+        <v>155</v>
+      </c>
+      <c r="B151">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="C151">
+        <v>0.1</v>
+      </c>
+      <c r="D151">
+        <v>0.01</v>
+      </c>
+      <c r="E151">
+        <v>0.15</v>
+      </c>
+      <c r="F151">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6">
+      <c r="A152" t="s">
+        <v>156</v>
+      </c>
+      <c r="B152">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="C152">
+        <v>0.1</v>
+      </c>
+      <c r="D152">
+        <v>0.01</v>
+      </c>
+      <c r="E152">
+        <v>0.22</v>
+      </c>
+      <c r="F152">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6">
+      <c r="A153" t="s">
+        <v>157</v>
+      </c>
+      <c r="B153">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="C153">
         <v>0.12</v>
       </c>
-      <c r="F148">
+      <c r="D153">
+        <v>0.01</v>
+      </c>
+      <c r="E153">
+        <v>0.19</v>
+      </c>
+      <c r="F153">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6">
+      <c r="A154" t="s">
+        <v>158</v>
+      </c>
+      <c r="B154">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="C154">
+        <v>0.13</v>
+      </c>
+      <c r="D154">
+        <v>0.01</v>
+      </c>
+      <c r="E154">
+        <v>0.22</v>
+      </c>
+      <c r="F154">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6">
+      <c r="A155" t="s">
+        <v>159</v>
+      </c>
+      <c r="B155">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="C155">
+        <v>0.11</v>
+      </c>
+      <c r="D155">
+        <v>0.01</v>
+      </c>
+      <c r="E155">
+        <v>0.17</v>
+      </c>
+      <c r="F155">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6">
+      <c r="A156" t="s">
+        <v>160</v>
+      </c>
+      <c r="B156">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="C156">
+        <v>0.11</v>
+      </c>
+      <c r="D156">
+        <v>0</v>
+      </c>
+      <c r="E156">
+        <v>0.22</v>
+      </c>
+      <c r="F156">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6">
+      <c r="A157" t="s">
+        <v>161</v>
+      </c>
+      <c r="B157">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="C157">
+        <v>0.1</v>
+      </c>
+      <c r="D157">
+        <v>0.01</v>
+      </c>
+      <c r="E157">
+        <v>0.16</v>
+      </c>
+      <c r="F157">
         <v>0.2</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6">
+      <c r="A158" t="s">
+        <v>162</v>
+      </c>
+      <c r="B158">
+        <v>0.08</v>
+      </c>
+      <c r="C158">
+        <v>0.12</v>
+      </c>
+      <c r="D158">
+        <v>0.01</v>
+      </c>
+      <c r="E158">
+        <v>0.25</v>
+      </c>
+      <c r="F158">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6">
+      <c r="A159" t="s">
+        <v>163</v>
+      </c>
+      <c r="B159">
+        <v>0.08</v>
+      </c>
+      <c r="C159">
+        <v>0.14</v>
+      </c>
+      <c r="D159">
+        <v>0.01</v>
+      </c>
+      <c r="E159">
+        <v>0.18</v>
+      </c>
+      <c r="F159">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6">
+      <c r="A160" t="s">
+        <v>164</v>
+      </c>
+      <c r="B160">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="C160">
+        <v>0.1</v>
+      </c>
+      <c r="D160">
+        <v>0.01</v>
+      </c>
+      <c r="E160">
+        <v>0.16</v>
+      </c>
+      <c r="F160">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6">
+      <c r="A161" t="s">
+        <v>165</v>
+      </c>
+      <c r="B161">
+        <v>0.08</v>
+      </c>
+      <c r="C161">
+        <v>0.09</v>
+      </c>
+      <c r="D161">
+        <v>0</v>
+      </c>
+      <c r="E161">
+        <v>0.12</v>
+      </c>
+      <c r="F161">
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6">
+      <c r="A162" t="s">
+        <v>166</v>
+      </c>
+      <c r="B162">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="C162">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="D162">
+        <v>0.01</v>
+      </c>
+      <c r="E162">
+        <v>0.19</v>
+      </c>
+      <c r="F162">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6">
+      <c r="A163" t="s">
+        <v>167</v>
+      </c>
+      <c r="B163">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="C163">
+        <v>0.12</v>
+      </c>
+      <c r="D163">
+        <v>0</v>
+      </c>
+      <c r="E163">
+        <v>0.23</v>
+      </c>
+      <c r="F163">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6">
+      <c r="A164" t="s">
+        <v>168</v>
+      </c>
+      <c r="B164">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="C164">
+        <v>0.13</v>
+      </c>
+      <c r="D164">
+        <v>0.01</v>
+      </c>
+      <c r="E164">
+        <v>0.18</v>
+      </c>
+      <c r="F164">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6">
+      <c r="A165" t="s">
+        <v>169</v>
+      </c>
+      <c r="B165">
+        <v>0.08</v>
+      </c>
+      <c r="C165">
+        <v>0.1</v>
+      </c>
+      <c r="D165">
+        <v>0.01</v>
+      </c>
+      <c r="E165">
+        <v>0.26</v>
+      </c>
+      <c r="F165">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6">
+      <c r="A166" t="s">
+        <v>170</v>
+      </c>
+      <c r="B166">
+        <v>0.08</v>
+      </c>
+      <c r="C166">
+        <v>0.13</v>
+      </c>
+      <c r="D166">
+        <v>0</v>
+      </c>
+      <c r="E166">
+        <v>0.22</v>
+      </c>
+      <c r="F166">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6">
+      <c r="A167" t="s">
+        <v>171</v>
+      </c>
+      <c r="B167">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="C167">
+        <v>0.1</v>
+      </c>
+      <c r="D167">
+        <v>0.01</v>
+      </c>
+      <c r="E167">
+        <v>0.18</v>
+      </c>
+      <c r="F167">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6">
+      <c r="A168" t="s">
+        <v>172</v>
+      </c>
+      <c r="B168">
+        <v>0.09</v>
+      </c>
+      <c r="C168">
+        <v>0.13</v>
+      </c>
+      <c r="D168">
+        <v>0.01</v>
+      </c>
+      <c r="E168">
+        <v>0.18</v>
+      </c>
+      <c r="F168">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6">
+      <c r="A169" t="s">
+        <v>173</v>
+      </c>
+      <c r="B169">
+        <v>0.11</v>
+      </c>
+      <c r="C169">
+        <v>0.1</v>
+      </c>
+      <c r="D169">
+        <v>0.01</v>
+      </c>
+      <c r="E169">
+        <v>0.11</v>
+      </c>
+      <c r="F169">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6">
+      <c r="A170" t="s">
+        <v>174</v>
+      </c>
+      <c r="B170">
+        <v>0.12</v>
+      </c>
+      <c r="C170">
+        <v>0.13</v>
+      </c>
+      <c r="D170">
+        <v>0.01</v>
+      </c>
+      <c r="E170">
+        <v>0.22</v>
+      </c>
+      <c r="F170">
+        <v>0.22</v>
       </c>
     </row>
   </sheetData>

--- a/3/4/Tasas de captación 2021 - Diaria.xlsx
+++ b/3/4/Tasas de captación 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="176">
   <si>
     <t>Serie</t>
   </si>
@@ -539,6 +539,9 @@
   </si>
   <si>
     <t>02-09-2021</t>
+  </si>
+  <si>
+    <t>03-09-2021</t>
   </si>
 </sst>
 </file>
@@ -896,7 +899,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F170"/>
+  <dimension ref="A1:F171"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4302,6 +4305,26 @@
         <v>0.22</v>
       </c>
     </row>
+    <row r="171" spans="1:6">
+      <c r="A171" t="s">
+        <v>175</v>
+      </c>
+      <c r="B171">
+        <v>0.12</v>
+      </c>
+      <c r="C171">
+        <v>0.19</v>
+      </c>
+      <c r="D171">
+        <v>0</v>
+      </c>
+      <c r="E171">
+        <v>0.14</v>
+      </c>
+      <c r="F171">
+        <v>0.17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/3/4/Tasas de captación 2021 - Diaria.xlsx
+++ b/3/4/Tasas de captación 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="177">
   <si>
     <t>Serie</t>
   </si>
@@ -542,6 +542,9 @@
   </si>
   <si>
     <t>03-09-2021</t>
+  </si>
+  <si>
+    <t>06-09-2021</t>
   </si>
 </sst>
 </file>
@@ -899,7 +902,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F171"/>
+  <dimension ref="A1:F172"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4325,6 +4328,26 @@
         <v>0.17</v>
       </c>
     </row>
+    <row r="172" spans="1:6">
+      <c r="A172" t="s">
+        <v>176</v>
+      </c>
+      <c r="B172">
+        <v>0.12</v>
+      </c>
+      <c r="C172">
+        <v>0.18</v>
+      </c>
+      <c r="D172">
+        <v>0</v>
+      </c>
+      <c r="E172">
+        <v>0.11</v>
+      </c>
+      <c r="F172">
+        <v>0.08</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/3/4/Tasas de captación 2021 - Diaria.xlsx
+++ b/3/4/Tasas de captación 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="178">
   <si>
     <t>Serie</t>
   </si>
@@ -545,6 +545,9 @@
   </si>
   <si>
     <t>06-09-2021</t>
+  </si>
+  <si>
+    <t>07-09-2021</t>
   </si>
 </sst>
 </file>
@@ -902,7 +905,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F172"/>
+  <dimension ref="A1:F173"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4348,6 +4351,26 @@
         <v>0.08</v>
       </c>
     </row>
+    <row r="173" spans="1:6">
+      <c r="A173" t="s">
+        <v>177</v>
+      </c>
+      <c r="B173">
+        <v>0.13</v>
+      </c>
+      <c r="C173">
+        <v>0.19</v>
+      </c>
+      <c r="D173">
+        <v>0.01</v>
+      </c>
+      <c r="E173">
+        <v>0.21</v>
+      </c>
+      <c r="F173">
+        <v>0.27</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/3/4/Tasas de captación 2021 - Diaria.xlsx
+++ b/3/4/Tasas de captación 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="184">
   <si>
     <t>Serie</t>
   </si>
@@ -548,6 +548,24 @@
   </si>
   <si>
     <t>07-09-2021</t>
+  </si>
+  <si>
+    <t>08-09-2021</t>
+  </si>
+  <si>
+    <t>09-09-2021</t>
+  </si>
+  <si>
+    <t>10-09-2021</t>
+  </si>
+  <si>
+    <t>13-09-2021</t>
+  </si>
+  <si>
+    <t>14-09-2021</t>
+  </si>
+  <si>
+    <t>15-09-2021</t>
   </si>
 </sst>
 </file>
@@ -905,7 +923,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F173"/>
+  <dimension ref="A1:F179"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4371,6 +4389,126 @@
         <v>0.27</v>
       </c>
     </row>
+    <row r="174" spans="1:6">
+      <c r="A174" t="s">
+        <v>178</v>
+      </c>
+      <c r="B174">
+        <v>0.13</v>
+      </c>
+      <c r="C174">
+        <v>0.21</v>
+      </c>
+      <c r="D174">
+        <v>0</v>
+      </c>
+      <c r="E174">
+        <v>0.26</v>
+      </c>
+      <c r="F174">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6">
+      <c r="A175" t="s">
+        <v>179</v>
+      </c>
+      <c r="B175">
+        <v>0.13</v>
+      </c>
+      <c r="C175">
+        <v>0.23</v>
+      </c>
+      <c r="D175">
+        <v>0.01</v>
+      </c>
+      <c r="E175">
+        <v>0.23</v>
+      </c>
+      <c r="F175">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6">
+      <c r="A176" t="s">
+        <v>180</v>
+      </c>
+      <c r="B176">
+        <v>0.14</v>
+      </c>
+      <c r="C176">
+        <v>0.24</v>
+      </c>
+      <c r="D176">
+        <v>0</v>
+      </c>
+      <c r="E176">
+        <v>0.21</v>
+      </c>
+      <c r="F176">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6">
+      <c r="A177" t="s">
+        <v>181</v>
+      </c>
+      <c r="B177">
+        <v>0.13</v>
+      </c>
+      <c r="C177">
+        <v>0.16</v>
+      </c>
+      <c r="D177">
+        <v>0.01</v>
+      </c>
+      <c r="E177">
+        <v>0.32</v>
+      </c>
+      <c r="F177">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6">
+      <c r="A178" t="s">
+        <v>182</v>
+      </c>
+      <c r="B178">
+        <v>0.14</v>
+      </c>
+      <c r="C178">
+        <v>0.23</v>
+      </c>
+      <c r="D178">
+        <v>0.01</v>
+      </c>
+      <c r="E178">
+        <v>0.31</v>
+      </c>
+      <c r="F178">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6">
+      <c r="A179" t="s">
+        <v>183</v>
+      </c>
+      <c r="B179">
+        <v>0.14</v>
+      </c>
+      <c r="C179">
+        <v>0.22</v>
+      </c>
+      <c r="D179">
+        <v>0.01</v>
+      </c>
+      <c r="E179">
+        <v>0.14</v>
+      </c>
+      <c r="F179">
+        <v>0.29</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/3/4/Tasas de captación 2021 - Diaria.xlsx
+++ b/3/4/Tasas de captación 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="193">
   <si>
     <t>Serie</t>
   </si>
@@ -566,6 +566,33 @@
   </si>
   <si>
     <t>15-09-2021</t>
+  </si>
+  <si>
+    <t>16-09-2021</t>
+  </si>
+  <si>
+    <t>20-09-2021</t>
+  </si>
+  <si>
+    <t>21-09-2021</t>
+  </si>
+  <si>
+    <t>22-09-2021</t>
+  </si>
+  <si>
+    <t>23-09-2021</t>
+  </si>
+  <si>
+    <t>24-09-2021</t>
+  </si>
+  <si>
+    <t>27-09-2021</t>
+  </si>
+  <si>
+    <t>28-09-2021</t>
+  </si>
+  <si>
+    <t>29-09-2021</t>
   </si>
 </sst>
 </file>
@@ -923,7 +950,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F179"/>
+  <dimension ref="A1:F188"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4509,6 +4536,186 @@
         <v>0.29</v>
       </c>
     </row>
+    <row r="180" spans="1:6">
+      <c r="A180" t="s">
+        <v>184</v>
+      </c>
+      <c r="B180">
+        <v>0.14</v>
+      </c>
+      <c r="C180">
+        <v>0.22</v>
+      </c>
+      <c r="D180">
+        <v>0.01</v>
+      </c>
+      <c r="E180">
+        <v>0.14</v>
+      </c>
+      <c r="F180">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6">
+      <c r="A181" t="s">
+        <v>185</v>
+      </c>
+      <c r="B181">
+        <v>0.13</v>
+      </c>
+      <c r="C181">
+        <v>0.2</v>
+      </c>
+      <c r="D181">
+        <v>0.01</v>
+      </c>
+      <c r="E181">
+        <v>0.15</v>
+      </c>
+      <c r="F181">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6">
+      <c r="A182" t="s">
+        <v>186</v>
+      </c>
+      <c r="B182">
+        <v>0.15</v>
+      </c>
+      <c r="C182">
+        <v>0.25</v>
+      </c>
+      <c r="D182">
+        <v>0.01</v>
+      </c>
+      <c r="E182">
+        <v>0.24</v>
+      </c>
+      <c r="F182">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6">
+      <c r="A183" t="s">
+        <v>187</v>
+      </c>
+      <c r="B183">
+        <v>0.15</v>
+      </c>
+      <c r="C183">
+        <v>0.25</v>
+      </c>
+      <c r="D183">
+        <v>0</v>
+      </c>
+      <c r="E183">
+        <v>0.31</v>
+      </c>
+      <c r="F183">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6">
+      <c r="A184" t="s">
+        <v>188</v>
+      </c>
+      <c r="B184">
+        <v>0.15</v>
+      </c>
+      <c r="C184">
+        <v>0.26</v>
+      </c>
+      <c r="D184">
+        <v>0.01</v>
+      </c>
+      <c r="E184">
+        <v>0.33</v>
+      </c>
+      <c r="F184">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6">
+      <c r="A185" t="s">
+        <v>189</v>
+      </c>
+      <c r="B185">
+        <v>0.14</v>
+      </c>
+      <c r="C185">
+        <v>0.25</v>
+      </c>
+      <c r="D185">
+        <v>0.01</v>
+      </c>
+      <c r="E185">
+        <v>0.24</v>
+      </c>
+      <c r="F185">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6">
+      <c r="A186" t="s">
+        <v>190</v>
+      </c>
+      <c r="B186">
+        <v>0.15</v>
+      </c>
+      <c r="C186">
+        <v>0.22</v>
+      </c>
+      <c r="D186">
+        <v>0.01</v>
+      </c>
+      <c r="E186">
+        <v>0.27</v>
+      </c>
+      <c r="F186">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6">
+      <c r="A187" t="s">
+        <v>191</v>
+      </c>
+      <c r="B187">
+        <v>0.14</v>
+      </c>
+      <c r="C187">
+        <v>0.23</v>
+      </c>
+      <c r="D187">
+        <v>0.01</v>
+      </c>
+      <c r="E187">
+        <v>0.18</v>
+      </c>
+      <c r="F187">
+        <v>0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6">
+      <c r="A188" t="s">
+        <v>192</v>
+      </c>
+      <c r="B188">
+        <v>0.15</v>
+      </c>
+      <c r="C188">
+        <v>0.22</v>
+      </c>
+      <c r="D188">
+        <v>0.01</v>
+      </c>
+      <c r="E188">
+        <v>0.13</v>
+      </c>
+      <c r="F188">
+        <v>0.7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/3/4/Tasas de captación 2021 - Diaria.xlsx
+++ b/3/4/Tasas de captación 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="195">
   <si>
     <t>Serie</t>
   </si>
@@ -593,6 +593,12 @@
   </si>
   <si>
     <t>29-09-2021</t>
+  </si>
+  <si>
+    <t>30-09-2021</t>
+  </si>
+  <si>
+    <t>01-10-2021</t>
   </si>
 </sst>
 </file>
@@ -950,7 +956,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F188"/>
+  <dimension ref="A1:F190"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4716,6 +4722,46 @@
         <v>0.7</v>
       </c>
     </row>
+    <row r="189" spans="1:6">
+      <c r="A189" t="s">
+        <v>193</v>
+      </c>
+      <c r="B189">
+        <v>0.16</v>
+      </c>
+      <c r="C189">
+        <v>0.19</v>
+      </c>
+      <c r="D189">
+        <v>0.01</v>
+      </c>
+      <c r="E189">
+        <v>0.23</v>
+      </c>
+      <c r="F189">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6">
+      <c r="A190" t="s">
+        <v>194</v>
+      </c>
+      <c r="B190">
+        <v>0.15</v>
+      </c>
+      <c r="C190">
+        <v>0.24</v>
+      </c>
+      <c r="D190">
+        <v>0.01</v>
+      </c>
+      <c r="E190">
+        <v>0.08</v>
+      </c>
+      <c r="F190">
+        <v>0.35</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/3/4/Tasas de captación 2021 - Diaria.xlsx
+++ b/3/4/Tasas de captación 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="198">
   <si>
     <t>Serie</t>
   </si>
@@ -599,6 +599,15 @@
   </si>
   <si>
     <t>01-10-2021</t>
+  </si>
+  <si>
+    <t>04-10-2021</t>
+  </si>
+  <si>
+    <t>05-10-2021</t>
+  </si>
+  <si>
+    <t>06-10-2021</t>
   </si>
 </sst>
 </file>
@@ -956,7 +965,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F190"/>
+  <dimension ref="A1:F193"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4762,6 +4771,66 @@
         <v>0.35</v>
       </c>
     </row>
+    <row r="191" spans="1:6">
+      <c r="A191" t="s">
+        <v>195</v>
+      </c>
+      <c r="B191">
+        <v>0.15</v>
+      </c>
+      <c r="C191">
+        <v>0.21</v>
+      </c>
+      <c r="D191">
+        <v>0.01</v>
+      </c>
+      <c r="E191">
+        <v>0.35</v>
+      </c>
+      <c r="F191">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6">
+      <c r="A192" t="s">
+        <v>196</v>
+      </c>
+      <c r="B192">
+        <v>0.16</v>
+      </c>
+      <c r="C192">
+        <v>0.25</v>
+      </c>
+      <c r="D192">
+        <v>0.01</v>
+      </c>
+      <c r="E192">
+        <v>0.15</v>
+      </c>
+      <c r="F192">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6">
+      <c r="A193" t="s">
+        <v>197</v>
+      </c>
+      <c r="B193">
+        <v>0.16</v>
+      </c>
+      <c r="C193">
+        <v>0.23</v>
+      </c>
+      <c r="D193">
+        <v>0</v>
+      </c>
+      <c r="E193">
+        <v>0.17</v>
+      </c>
+      <c r="F193">
+        <v>0.35</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/3/4/Tasas de captación 2021 - Diaria.xlsx
+++ b/3/4/Tasas de captación 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="199">
   <si>
     <t>Serie</t>
   </si>
@@ -608,6 +608,9 @@
   </si>
   <si>
     <t>06-10-2021</t>
+  </si>
+  <si>
+    <t>07-10-2021</t>
   </si>
 </sst>
 </file>
@@ -965,7 +968,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F193"/>
+  <dimension ref="A1:F194"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4831,6 +4834,26 @@
         <v>0.35</v>
       </c>
     </row>
+    <row r="194" spans="1:6">
+      <c r="A194" t="s">
+        <v>198</v>
+      </c>
+      <c r="B194">
+        <v>0.16</v>
+      </c>
+      <c r="C194">
+        <v>0.28</v>
+      </c>
+      <c r="D194">
+        <v>0.01</v>
+      </c>
+      <c r="E194">
+        <v>0.2</v>
+      </c>
+      <c r="F194">
+        <v>0.4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/3/4/Tasas de captación 2021 - Diaria.xlsx
+++ b/3/4/Tasas de captación 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="203">
   <si>
     <t>Serie</t>
   </si>
@@ -611,6 +611,18 @@
   </si>
   <si>
     <t>07-10-2021</t>
+  </si>
+  <si>
+    <t>08-10-2021</t>
+  </si>
+  <si>
+    <t>12-10-2021</t>
+  </si>
+  <si>
+    <t>13-10-2021</t>
+  </si>
+  <si>
+    <t>14-10-2021</t>
   </si>
 </sst>
 </file>
@@ -968,7 +980,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F194"/>
+  <dimension ref="A1:F198"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4854,6 +4866,86 @@
         <v>0.4</v>
       </c>
     </row>
+    <row r="195" spans="1:6">
+      <c r="A195" t="s">
+        <v>199</v>
+      </c>
+      <c r="B195">
+        <v>0.16</v>
+      </c>
+      <c r="C195">
+        <v>0.23</v>
+      </c>
+      <c r="D195">
+        <v>0.01</v>
+      </c>
+      <c r="E195">
+        <v>0.18</v>
+      </c>
+      <c r="F195">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6">
+      <c r="A196" t="s">
+        <v>200</v>
+      </c>
+      <c r="B196">
+        <v>0.17</v>
+      </c>
+      <c r="C196">
+        <v>0.21</v>
+      </c>
+      <c r="D196">
+        <v>0.02</v>
+      </c>
+      <c r="E196">
+        <v>0.18</v>
+      </c>
+      <c r="F196">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6">
+      <c r="A197" t="s">
+        <v>201</v>
+      </c>
+      <c r="B197">
+        <v>0.18</v>
+      </c>
+      <c r="C197">
+        <v>0.28</v>
+      </c>
+      <c r="D197">
+        <v>0.01</v>
+      </c>
+      <c r="E197">
+        <v>0.26</v>
+      </c>
+      <c r="F197">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6">
+      <c r="A198" t="s">
+        <v>202</v>
+      </c>
+      <c r="B198">
+        <v>0.21</v>
+      </c>
+      <c r="C198">
+        <v>0.3</v>
+      </c>
+      <c r="D198">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="E198">
+        <v>0.22</v>
+      </c>
+      <c r="F198">
+        <v>0.52</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/3/4/Tasas de captación 2021 - Diaria.xlsx
+++ b/3/4/Tasas de captación 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="213">
   <si>
     <t>Serie</t>
   </si>
@@ -623,6 +623,36 @@
   </si>
   <si>
     <t>14-10-2021</t>
+  </si>
+  <si>
+    <t>15-10-2021</t>
+  </si>
+  <si>
+    <t>18-10-2021</t>
+  </si>
+  <si>
+    <t>19-10-2021</t>
+  </si>
+  <si>
+    <t>20-10-2021</t>
+  </si>
+  <si>
+    <t>21-10-2021</t>
+  </si>
+  <si>
+    <t>22-10-2021</t>
+  </si>
+  <si>
+    <t>25-10-2021</t>
+  </si>
+  <si>
+    <t>26-10-2021</t>
+  </si>
+  <si>
+    <t>27-10-2021</t>
+  </si>
+  <si>
+    <t>28-10-2021</t>
   </si>
 </sst>
 </file>
@@ -980,7 +1010,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F198"/>
+  <dimension ref="A1:F208"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4946,6 +4976,206 @@
         <v>0.52</v>
       </c>
     </row>
+    <row r="199" spans="1:6">
+      <c r="A199" t="s">
+        <v>203</v>
+      </c>
+      <c r="B199">
+        <v>0.22</v>
+      </c>
+      <c r="C199">
+        <v>0.36</v>
+      </c>
+      <c r="D199">
+        <v>0</v>
+      </c>
+      <c r="E199">
+        <v>0.2</v>
+      </c>
+      <c r="F199">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6">
+      <c r="A200" t="s">
+        <v>204</v>
+      </c>
+      <c r="B200">
+        <v>0.22</v>
+      </c>
+      <c r="C200">
+        <v>0.36</v>
+      </c>
+      <c r="D200">
+        <v>0.01</v>
+      </c>
+      <c r="E200">
+        <v>0.22</v>
+      </c>
+      <c r="F200">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6">
+      <c r="A201" t="s">
+        <v>205</v>
+      </c>
+      <c r="B201">
+        <v>0.24</v>
+      </c>
+      <c r="C201">
+        <v>0.38</v>
+      </c>
+      <c r="D201">
+        <v>0.09</v>
+      </c>
+      <c r="E201">
+        <v>0.26</v>
+      </c>
+      <c r="F201">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6">
+      <c r="A202" t="s">
+        <v>206</v>
+      </c>
+      <c r="B202">
+        <v>0.23</v>
+      </c>
+      <c r="C202">
+        <v>0.39</v>
+      </c>
+      <c r="D202">
+        <v>0.21</v>
+      </c>
+      <c r="E202">
+        <v>0.21</v>
+      </c>
+      <c r="F202">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6">
+      <c r="A203" t="s">
+        <v>207</v>
+      </c>
+      <c r="B203">
+        <v>0.23</v>
+      </c>
+      <c r="C203">
+        <v>0.4</v>
+      </c>
+      <c r="D203">
+        <v>0.15</v>
+      </c>
+      <c r="E203">
+        <v>0.25</v>
+      </c>
+      <c r="F203">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6">
+      <c r="A204" t="s">
+        <v>208</v>
+      </c>
+      <c r="B204">
+        <v>0.23</v>
+      </c>
+      <c r="C204">
+        <v>0.35</v>
+      </c>
+      <c r="D204">
+        <v>0.09</v>
+      </c>
+      <c r="E204">
+        <v>0.14</v>
+      </c>
+      <c r="F204">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6">
+      <c r="A205" t="s">
+        <v>209</v>
+      </c>
+      <c r="B205">
+        <v>0.23</v>
+      </c>
+      <c r="C205">
+        <v>0.29</v>
+      </c>
+      <c r="D205">
+        <v>0.03</v>
+      </c>
+      <c r="E205">
+        <v>0.25</v>
+      </c>
+      <c r="F205">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6">
+      <c r="A206" t="s">
+        <v>210</v>
+      </c>
+      <c r="B206">
+        <v>0.24</v>
+      </c>
+      <c r="C206">
+        <v>0.4</v>
+      </c>
+      <c r="D206">
+        <v>0.01</v>
+      </c>
+      <c r="E206">
+        <v>0.13</v>
+      </c>
+      <c r="F206">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6">
+      <c r="A207" t="s">
+        <v>211</v>
+      </c>
+      <c r="B207">
+        <v>0.24</v>
+      </c>
+      <c r="C207">
+        <v>0.34</v>
+      </c>
+      <c r="D207">
+        <v>0.76</v>
+      </c>
+      <c r="E207">
+        <v>0.24</v>
+      </c>
+      <c r="F207">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6">
+      <c r="A208" t="s">
+        <v>212</v>
+      </c>
+      <c r="B208">
+        <v>0.23</v>
+      </c>
+      <c r="C208">
+        <v>0.34</v>
+      </c>
+      <c r="D208">
+        <v>0.71</v>
+      </c>
+      <c r="E208">
+        <v>0.21</v>
+      </c>
+      <c r="F208">
+        <v>0.29</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/3/4/Tasas de captación 2021 - Diaria.xlsx
+++ b/3/4/Tasas de captación 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="215">
   <si>
     <t>Serie</t>
   </si>
@@ -653,6 +653,12 @@
   </si>
   <si>
     <t>28-10-2021</t>
+  </si>
+  <si>
+    <t>29-10-2021</t>
+  </si>
+  <si>
+    <t>02-11-2021</t>
   </si>
 </sst>
 </file>
@@ -1010,7 +1016,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F208"/>
+  <dimension ref="A1:F210"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5176,6 +5182,46 @@
         <v>0.29</v>
       </c>
     </row>
+    <row r="209" spans="1:6">
+      <c r="A209" t="s">
+        <v>213</v>
+      </c>
+      <c r="B209">
+        <v>0.24</v>
+      </c>
+      <c r="C209">
+        <v>0.33</v>
+      </c>
+      <c r="D209">
+        <v>0.01</v>
+      </c>
+      <c r="E209">
+        <v>0.15</v>
+      </c>
+      <c r="F209">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6">
+      <c r="A210" t="s">
+        <v>214</v>
+      </c>
+      <c r="B210">
+        <v>0.24</v>
+      </c>
+      <c r="C210">
+        <v>0.29</v>
+      </c>
+      <c r="D210">
+        <v>0.01</v>
+      </c>
+      <c r="E210">
+        <v>0.25</v>
+      </c>
+      <c r="F210">
+        <v>0.43</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/3/4/Tasas de captación 2021 - Diaria.xlsx
+++ b/3/4/Tasas de captación 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="216">
   <si>
     <t>Serie</t>
   </si>
@@ -659,6 +659,9 @@
   </si>
   <si>
     <t>02-11-2021</t>
+  </si>
+  <si>
+    <t>03-11-2021</t>
   </si>
 </sst>
 </file>
@@ -1016,7 +1019,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F210"/>
+  <dimension ref="A1:F211"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5222,6 +5225,26 @@
         <v>0.43</v>
       </c>
     </row>
+    <row r="211" spans="1:6">
+      <c r="A211" t="s">
+        <v>215</v>
+      </c>
+      <c r="B211">
+        <v>0.24</v>
+      </c>
+      <c r="C211">
+        <v>0.33</v>
+      </c>
+      <c r="D211">
+        <v>0.01</v>
+      </c>
+      <c r="E211">
+        <v>0.16</v>
+      </c>
+      <c r="F211">
+        <v>0.26</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/3/4/Tasas de captación 2021 - Diaria.xlsx
+++ b/3/4/Tasas de captación 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="217">
   <si>
     <t>Serie</t>
   </si>
@@ -662,6 +662,9 @@
   </si>
   <si>
     <t>03-11-2021</t>
+  </si>
+  <si>
+    <t>04-11-2021</t>
   </si>
 </sst>
 </file>
@@ -1019,7 +1022,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F211"/>
+  <dimension ref="A1:F212"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5239,10 +5242,30 @@
         <v>0.01</v>
       </c>
       <c r="E211">
-        <v>0.16</v>
+        <v>0.18</v>
       </c>
       <c r="F211">
-        <v>0.26</v>
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6">
+      <c r="A212" t="s">
+        <v>216</v>
+      </c>
+      <c r="B212">
+        <v>0.24</v>
+      </c>
+      <c r="C212">
+        <v>0.36</v>
+      </c>
+      <c r="D212">
+        <v>0.01</v>
+      </c>
+      <c r="E212">
+        <v>0.1</v>
+      </c>
+      <c r="F212">
+        <v>0.43</v>
       </c>
     </row>
   </sheetData>

--- a/3/4/Tasas de captación 2021 - Diaria.xlsx
+++ b/3/4/Tasas de captación 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="218">
   <si>
     <t>Serie</t>
   </si>
@@ -665,6 +665,9 @@
   </si>
   <si>
     <t>04-11-2021</t>
+  </si>
+  <si>
+    <t>05-11-2021</t>
   </si>
 </sst>
 </file>
@@ -1022,7 +1025,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F212"/>
+  <dimension ref="A1:F213"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5268,6 +5271,26 @@
         <v>0.43</v>
       </c>
     </row>
+    <row r="213" spans="1:6">
+      <c r="A213" t="s">
+        <v>217</v>
+      </c>
+      <c r="B213">
+        <v>0.25</v>
+      </c>
+      <c r="C213">
+        <v>0.28</v>
+      </c>
+      <c r="D213">
+        <v>0.01</v>
+      </c>
+      <c r="E213">
+        <v>0.19</v>
+      </c>
+      <c r="F213">
+        <v>0.28</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/3/4/Tasas de captación 2021 - Diaria.xlsx
+++ b/3/4/Tasas de captación 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="219">
   <si>
     <t>Serie</t>
   </si>
@@ -668,6 +668,9 @@
   </si>
   <si>
     <t>05-11-2021</t>
+  </si>
+  <si>
+    <t>08-11-2021</t>
   </si>
 </sst>
 </file>
@@ -1025,7 +1028,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F213"/>
+  <dimension ref="A1:F214"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5291,6 +5294,26 @@
         <v>0.28</v>
       </c>
     </row>
+    <row r="214" spans="1:6">
+      <c r="A214" t="s">
+        <v>218</v>
+      </c>
+      <c r="B214">
+        <v>0.24</v>
+      </c>
+      <c r="C214">
+        <v>0.32</v>
+      </c>
+      <c r="D214">
+        <v>0.01</v>
+      </c>
+      <c r="E214">
+        <v>0.2</v>
+      </c>
+      <c r="F214">
+        <v>0.51</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
